--- a/biology/Zoologie/Boana_(genre)/Boana_(genre).xlsx
+++ b/biology/Zoologie/Boana_(genre)/Boana_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boana est un genre d'amphibiens anoures de la famille des Hylidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Amphibian Species of the World                      (9 juin 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Amphibian Species of the World                      (9 juin 2017) :
 Boana aguilari (Lehr, Faivovich, &amp; Jungfer, 2010)
 Boana albomarginata (Spix, 1824)
 Boana albonigra (Nieden, 1923)
@@ -634,7 +648,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) John Edward Gray, « A Synopsis of the Genera of Reptiles and Amphibia, with a Description of some new Species », Annals of Philosophy, Londres, vol. n.s., vol. 10,‎ 12 juillet 1825, p. 193-217 (ISSN 0365-4915, OCLC 1481399, lire en ligne)</t>
         </is>
